--- a/enrollment.xlsx
+++ b/enrollment.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>batch</t>
@@ -456,8 +461,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>8</v>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -477,8 +482,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>14</v>
+      <c r="A3" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -498,8 +503,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
+      <c r="A4" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -519,8 +524,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>2</v>
+      <c r="A5" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -540,8 +545,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>17</v>
+      <c r="A6" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -561,8 +566,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>11</v>
+      <c r="A7" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -582,8 +587,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>18</v>
+      <c r="A8" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -603,8 +608,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
+      <c r="A9" t="n">
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -624,8 +629,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
+      <c r="A10" t="n">
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -645,8 +650,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>13</v>
+      <c r="A11" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -666,8 +671,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>15</v>
+      <c r="A12" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -687,8 +692,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>7</v>
+      <c r="A13" t="n">
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -708,8 +713,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>4</v>
+      <c r="A14" t="n">
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -729,8 +734,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>1</v>
+      <c r="A15" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -750,8 +755,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>12</v>
+      <c r="A16" t="n">
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -771,8 +776,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>3</v>
+      <c r="A17" t="n">
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -792,7 +797,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -813,8 +818,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>19</v>
+      <c r="A19" t="n">
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -834,8 +839,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>10</v>
+      <c r="A20" t="n">
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -855,8 +860,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>6</v>
+      <c r="A21" t="n">
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
